--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_10_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_10_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>771765.2992284382</v>
+        <v>646515.9064937022</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131408.985508542</v>
+        <v>1132823.573406695</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23404002.81660417</v>
+        <v>18342789.10298108</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4696784.338809276</v>
+        <v>7037329.617615684</v>
       </c>
     </row>
     <row r="11">
@@ -1375,25 +1375,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>25.75359370674563</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="G11" t="n">
-        <v>13.18456318129115</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="H11" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.96885011499904</v>
+        <v>3.224589128737045</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>25.94896564892766</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>25.94896564892766</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>25.94896564892766</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="R14" t="n">
-        <v>22.85584894357548</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
     </row>
     <row r="15">
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>25.94896564892766</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>25.94896564892766</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22.85584894357549</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.94896564892766</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1858,58 +1858,58 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="I17" t="n">
+      <c r="W17" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="J17" t="n">
+      <c r="X17" t="n">
         <v>39.95092127527401</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,49 +1940,49 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>39.95092127527401</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="I18" t="n">
+      <c r="U18" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="J18" t="n">
+      <c r="V18" t="n">
         <v>45.35754004913036</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>22.52900457800858</v>
-      </c>
-      <c r="R18" t="n">
-        <v>17.42191669726541</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="S20" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>45.35754004913036</v>
       </c>
       <c r="X20" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,76 +2159,76 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="S21" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17.42191669726542</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>22.5290045780086</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>39.95092127527401</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>45.35754004913036</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2320,70 +2320,70 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>66.6819173051269</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>75.70608231735571</v>
-      </c>
-      <c r="T23" t="n">
-        <v>75.70608231735571</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,61 +2411,61 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="H24" t="n">
+      <c r="V24" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="I24" t="n">
-        <v>61.56528559377018</v>
-      </c>
-      <c r="J24" t="n">
-        <v>58.29370945070387</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>22.52900457800858</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
     </row>
     <row r="25">
@@ -2557,67 +2557,67 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="S26" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>66.6819173051269</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>66.68191730512686</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,67 +2639,67 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>22.52900457800858</v>
+      </c>
+      <c r="R27" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>66.6819173051269</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>75.70608231735571</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>44.15291272711835</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2794,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>66.68191730512686</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>66.6819173051269</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="W29" t="n">
         <v>75.70608231735571</v>
       </c>
       <c r="X29" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,64 +2882,64 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>66.6819173051269</v>
+      </c>
+      <c r="T30" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="I30" t="n">
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>75.70608231735571</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>66.6819173051269</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>66.6819173051269</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>74.17977014942213</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>75.70608231735571</v>
       </c>
       <c r="V32" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>44.15291272711835</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>44.15291272711835</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>75.70608231735571</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="Y33" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>60.73723220235667</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>53.49735412383575</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>60.73723220235667</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.73723220235667</v>
+        <v>40.92832359838127</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>53.49735412383575</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>40.92832359838127</v>
       </c>
       <c r="U36" t="n">
-        <v>60.73723220235667</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="V36" t="n">
-        <v>60.73723220235667</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="W36" t="n">
-        <v>60.73723220235667</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>49.75711666842804</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>40.92832359838125</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>49.75711666842804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>43.8260683615514</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="X38" t="n">
-        <v>49.75711666842804</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>43.8260683615514</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>49.75711666842804</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>49.75711666842804</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>49.75711666842804</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>40.92832359838125</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,64 +3751,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="G41" t="n">
+        <v>30.34854226822534</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>26.73099602985288</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>30.34854226822534</v>
-      </c>
-      <c r="U41" t="n">
-        <v>30.34854226822534</v>
-      </c>
-      <c r="V41" t="n">
-        <v>30.34854226822534</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,32 +3842,32 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
         <v>26.73099602985288</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>30.34854226822534</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>30.34854226822534</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3982,61 +3982,61 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>26.73099602985287</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>30.34854226822534</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
+      <c r="U44" t="n">
         <v>30.34854226822534</v>
       </c>
-      <c r="S44" t="n">
+      <c r="V44" t="n">
         <v>30.34854226822534</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>26.73099602985288</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>26.73099602985287</v>
       </c>
       <c r="G45" t="n">
-        <v>4.2019914518443</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>30.34854226822534</v>
       </c>
       <c r="V45" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>30.34854226822534</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="C11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="D11" t="n">
-        <v>59.87540045999617</v>
+        <v>90.94173540790645</v>
       </c>
       <c r="E11" t="n">
-        <v>59.87540045999617</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="F11" t="n">
-        <v>59.87540045999617</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="G11" t="n">
-        <v>46.55765987283339</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H11" t="n">
-        <v>31.43760925162223</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I11" t="n">
-        <v>16.31755863041108</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J11" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K11" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L11" t="n">
-        <v>16.01666962304898</v>
+        <v>30.11603260439146</v>
       </c>
       <c r="M11" t="n">
-        <v>30.83583123689803</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N11" t="n">
-        <v>45.65499285074709</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O11" t="n">
-        <v>45.92091405365831</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="S11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="T11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="U11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="V11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="W11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="X11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Y11" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.87540045999617</v>
+        <v>64.6646874508678</v>
       </c>
       <c r="C12" t="n">
-        <v>59.87540045999617</v>
+        <v>35.13047875773113</v>
       </c>
       <c r="D12" t="n">
-        <v>59.87540045999617</v>
+        <v>5.596270064594449</v>
       </c>
       <c r="E12" t="n">
-        <v>59.87540045999617</v>
+        <v>5.596270064594449</v>
       </c>
       <c r="F12" t="n">
-        <v>59.87540045999617</v>
+        <v>5.596270064594449</v>
       </c>
       <c r="G12" t="n">
-        <v>46.55765987283339</v>
+        <v>5.596270064594449</v>
       </c>
       <c r="H12" t="n">
-        <v>31.43760925162223</v>
+        <v>5.596270064594449</v>
       </c>
       <c r="I12" t="n">
-        <v>16.31755863041108</v>
+        <v>5.596270064594449</v>
       </c>
       <c r="J12" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K12" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L12" t="n">
-        <v>15.41791561844901</v>
+        <v>30.11603260439146</v>
       </c>
       <c r="M12" t="n">
-        <v>30.23707723229806</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N12" t="n">
-        <v>45.05623884614712</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O12" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P12" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.87540045999617</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="R12" t="n">
-        <v>59.87540045999617</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="S12" t="n">
-        <v>59.87540045999617</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="T12" t="n">
-        <v>59.87540045999617</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="U12" t="n">
-        <v>59.87540045999617</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="V12" t="n">
-        <v>59.87540045999617</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="W12" t="n">
-        <v>59.87540045999617</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="X12" t="n">
-        <v>59.87540045999617</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.87540045999617</v>
+        <v>94.19889614400448</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="M13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="N13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="O13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="P13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="R13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="S13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="T13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.70914649108894</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C14" t="n">
-        <v>80.70914649108894</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D14" t="n">
-        <v>54.4980700780307</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E14" t="n">
-        <v>54.4980700780307</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F14" t="n">
-        <v>54.4980700780307</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G14" t="n">
-        <v>28.28699366497246</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H14" t="n">
-        <v>28.28699366497246</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I14" t="n">
-        <v>28.28699366497246</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J14" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K14" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L14" t="n">
-        <v>27.7653932443526</v>
+        <v>31.28558726863968</v>
       </c>
       <c r="M14" t="n">
-        <v>53.45486923679098</v>
+        <v>60.23206520878293</v>
       </c>
       <c r="N14" t="n">
-        <v>79.14434522922937</v>
+        <v>89.17854314892618</v>
       </c>
       <c r="O14" t="n">
-        <v>89.84137618937278</v>
+        <v>103.0009800184834</v>
       </c>
       <c r="P14" t="n">
-        <v>103.7958625957106</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q14" t="n">
-        <v>103.7958625957106</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="R14" t="n">
-        <v>80.70914649108894</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="S14" t="n">
-        <v>80.70914649108894</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="T14" t="n">
-        <v>80.70914649108894</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="U14" t="n">
-        <v>80.70914649108894</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="V14" t="n">
-        <v>80.70914649108894</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="W14" t="n">
-        <v>80.70914649108894</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="X14" t="n">
-        <v>80.70914649108894</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.70914649108894</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.7958625957106</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C15" t="n">
-        <v>103.7958625957106</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D15" t="n">
-        <v>103.7958625957106</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E15" t="n">
-        <v>103.7958625957106</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F15" t="n">
-        <v>103.7958625957106</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G15" t="n">
-        <v>77.58478618265241</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H15" t="n">
-        <v>51.37370976959416</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I15" t="n">
-        <v>28.28699366497246</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J15" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K15" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L15" t="n">
-        <v>26.72743461839548</v>
+        <v>30.11603260439146</v>
       </c>
       <c r="M15" t="n">
-        <v>52.41691061083387</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N15" t="n">
-        <v>78.10638660327226</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O15" t="n">
-        <v>103.7958625957106</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P15" t="n">
-        <v>103.7958625957106</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7958625957106</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R15" t="n">
-        <v>103.7958625957106</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="S15" t="n">
-        <v>103.7958625957106</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="T15" t="n">
-        <v>103.7958625957106</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="U15" t="n">
-        <v>103.7958625957106</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="V15" t="n">
-        <v>103.7958625957106</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="W15" t="n">
-        <v>103.7958625957106</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="X15" t="n">
-        <v>103.7958625957106</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y15" t="n">
-        <v>103.7958625957106</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="M16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="N16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="O16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="P16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="R16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="S16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="T16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.075917251914213</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C17" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D17" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E17" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F17" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G17" t="n">
-        <v>135.6144631771978</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H17" t="n">
-        <v>89.79876615787424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I17" t="n">
-        <v>43.98306913855064</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J17" t="n">
         <v>3.628603203930429</v>
@@ -5521,13 +5521,13 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L17" t="n">
-        <v>48.53256785256949</v>
+        <v>32.76377984426642</v>
       </c>
       <c r="M17" t="n">
-        <v>93.43653250120855</v>
+        <v>77.66774449290548</v>
       </c>
       <c r="N17" t="n">
-        <v>138.3404971498476</v>
+        <v>122.5717091415445</v>
       </c>
       <c r="O17" t="n">
         <v>167.4756737901836</v>
@@ -5548,19 +5548,19 @@
         <v>181.4301601965215</v>
       </c>
       <c r="U17" t="n">
-        <v>181.4301601965215</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="V17" t="n">
-        <v>181.4301601965215</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="W17" t="n">
-        <v>181.4301601965215</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="X17" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y17" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H18" t="n">
-        <v>95.25999724257764</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I18" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J18" t="n">
         <v>3.628603203930429</v>
@@ -5600,13 +5600,13 @@
         <v>31.89429715218325</v>
       </c>
       <c r="L18" t="n">
-        <v>62.67575295910007</v>
+        <v>46.71826625060427</v>
       </c>
       <c r="M18" t="n">
-        <v>107.5797176077391</v>
+        <v>91.62223089924333</v>
       </c>
       <c r="N18" t="n">
-        <v>152.4836822563782</v>
+        <v>136.5261955478824</v>
       </c>
       <c r="O18" t="n">
         <v>181.4301601965215</v>
@@ -5615,7 +5615,7 @@
         <v>181.4301601965215</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6735899157047</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R18" t="n">
         <v>141.0756942619012</v>
@@ -5624,22 +5624,22 @@
         <v>141.0756942619012</v>
       </c>
       <c r="T18" t="n">
-        <v>141.0756942619012</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="U18" t="n">
-        <v>141.0756942619012</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="V18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y18" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.628603203930429</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="C20" t="n">
-        <v>3.628603203930429</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="D20" t="n">
-        <v>3.628603203930429</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="E20" t="n">
-        <v>3.628603203930429</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="F20" t="n">
-        <v>3.628603203930429</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="G20" t="n">
         <v>3.628603203930429</v>
@@ -5767,7 +5767,7 @@
         <v>138.3404971498476</v>
       </c>
       <c r="O20" t="n">
-        <v>181.4301601965215</v>
+        <v>167.4756737901837</v>
       </c>
       <c r="P20" t="n">
         <v>181.4301601965215</v>
@@ -5776,7 +5776,7 @@
         <v>181.4301601965215</v>
       </c>
       <c r="R20" t="n">
-        <v>181.4301601965215</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="S20" t="n">
         <v>135.6144631771978</v>
@@ -5785,19 +5785,19 @@
         <v>135.6144631771978</v>
       </c>
       <c r="U20" t="n">
+        <v>135.6144631771978</v>
+      </c>
+      <c r="V20" t="n">
+        <v>135.6144631771978</v>
+      </c>
+      <c r="W20" t="n">
         <v>89.79876615787424</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>89.79876615787424</v>
       </c>
-      <c r="W20" t="n">
-        <v>43.98306913855064</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3.628603203930429</v>
-      </c>
       <c r="Y20" t="n">
-        <v>3.628603203930429</v>
+        <v>89.79876615787424</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.04219587705748</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C21" t="n">
-        <v>67.04219587705748</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D21" t="n">
-        <v>67.04219587705748</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E21" t="n">
-        <v>67.04219587705748</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F21" t="n">
-        <v>21.22649885773388</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G21" t="n">
-        <v>21.22649885773388</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H21" t="n">
-        <v>21.22649885773388</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I21" t="n">
         <v>3.628603203930429</v>
@@ -5837,46 +5837,46 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L21" t="n">
-        <v>46.71826625060427</v>
+        <v>17.84901081317948</v>
       </c>
       <c r="M21" t="n">
-        <v>91.62223089924333</v>
+        <v>62.75297546181854</v>
       </c>
       <c r="N21" t="n">
-        <v>136.5261955478824</v>
+        <v>107.6569401104576</v>
       </c>
       <c r="O21" t="n">
-        <v>181.4301601965215</v>
+        <v>136.6034180506009</v>
       </c>
       <c r="P21" t="n">
         <v>181.4301601965215</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6735899157047</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R21" t="n">
-        <v>158.6735899157047</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6735899157047</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="T21" t="n">
-        <v>112.8578928963811</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="U21" t="n">
-        <v>112.8578928963811</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="V21" t="n">
-        <v>112.8578928963811</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="W21" t="n">
-        <v>112.8578928963811</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="X21" t="n">
-        <v>112.8578928963811</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="Y21" t="n">
-        <v>112.8578928963811</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="22">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="C23" t="n">
-        <v>82.52727680493967</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="D23" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E23" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F23" t="n">
         <v>6.056486585388456</v>
@@ -6013,28 +6013,28 @@
         <v>302.8243292694228</v>
       </c>
       <c r="R23" t="n">
-        <v>235.4688572440421</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S23" t="n">
-        <v>158.9980670244909</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T23" t="n">
-        <v>82.52727680493967</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U23" t="n">
-        <v>82.52727680493967</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="V23" t="n">
-        <v>82.52727680493967</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="W23" t="n">
-        <v>82.52727680493967</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="X23" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303204</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>280.0677589886061</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C24" t="n">
-        <v>280.0677589886061</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D24" t="n">
-        <v>280.0677589886061</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E24" t="n">
-        <v>280.0677589886061</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F24" t="n">
-        <v>280.0677589886061</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G24" t="n">
-        <v>203.5969687690549</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H24" t="n">
-        <v>127.1261785495037</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I24" t="n">
-        <v>64.93902138407924</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J24" t="n">
         <v>6.056486585388456</v>
@@ -6074,46 +6074,46 @@
         <v>34.32218053364127</v>
       </c>
       <c r="L24" t="n">
-        <v>48.54258814289035</v>
+        <v>109.2712020278234</v>
       </c>
       <c r="M24" t="n">
-        <v>93.44655279152941</v>
+        <v>184.2202235220056</v>
       </c>
       <c r="N24" t="n">
-        <v>160.6116349577815</v>
+        <v>251.3853056882577</v>
       </c>
       <c r="O24" t="n">
-        <v>227.8753077752407</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="P24" t="n">
         <v>302.8243292694228</v>
       </c>
       <c r="Q24" t="n">
-        <v>280.0677589886061</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R24" t="n">
-        <v>280.0677589886061</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S24" t="n">
-        <v>280.0677589886061</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T24" t="n">
-        <v>280.0677589886061</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U24" t="n">
-        <v>280.0677589886061</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="V24" t="n">
-        <v>280.0677589886061</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="W24" t="n">
-        <v>280.0677589886061</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="X24" t="n">
-        <v>280.0677589886061</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="Y24" t="n">
-        <v>280.0677589886061</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="25">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>235.4688572440421</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C26" t="n">
-        <v>158.9980670244909</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D26" t="n">
-        <v>158.9980670244909</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E26" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F26" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G26" t="n">
         <v>6.056486585388456</v>
@@ -6235,43 +6235,43 @@
         <v>64.02277838053847</v>
       </c>
       <c r="M26" t="n">
-        <v>138.9717998747207</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N26" t="n">
         <v>213.9208213689028</v>
       </c>
       <c r="O26" t="n">
-        <v>288.869842863085</v>
+        <v>288.8698428630849</v>
       </c>
       <c r="P26" t="n">
         <v>302.8243292694228</v>
       </c>
       <c r="Q26" t="n">
-        <v>235.4688572440421</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R26" t="n">
-        <v>235.4688572440421</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="S26" t="n">
-        <v>235.4688572440421</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="T26" t="n">
-        <v>235.4688572440421</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="U26" t="n">
-        <v>235.4688572440421</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="V26" t="n">
-        <v>235.4688572440421</v>
+        <v>73.41195861076912</v>
       </c>
       <c r="W26" t="n">
-        <v>235.4688572440421</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X26" t="n">
-        <v>235.4688572440421</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y26" t="n">
-        <v>235.4688572440421</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C27" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D27" t="n">
         <v>6.056486585388456</v>
@@ -6308,16 +6308,16 @@
         <v>6.056486585388456</v>
       </c>
       <c r="K27" t="n">
-        <v>6.056486585388456</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L27" t="n">
-        <v>20.27689419463754</v>
+        <v>48.54258814289035</v>
       </c>
       <c r="M27" t="n">
-        <v>85.76120411480645</v>
+        <v>93.44655279152941</v>
       </c>
       <c r="N27" t="n">
-        <v>152.9262862810585</v>
+        <v>160.6116349577815</v>
       </c>
       <c r="O27" t="n">
         <v>227.8753077752407</v>
@@ -6326,31 +6326,31 @@
         <v>302.8243292694228</v>
       </c>
       <c r="Q27" t="n">
-        <v>302.8243292694228</v>
+        <v>280.0677589886061</v>
       </c>
       <c r="R27" t="n">
-        <v>302.8243292694228</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="S27" t="n">
-        <v>302.8243292694228</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="T27" t="n">
-        <v>302.8243292694228</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="U27" t="n">
-        <v>235.4688572440421</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="V27" t="n">
-        <v>158.9980670244909</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="W27" t="n">
-        <v>82.52727680493967</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="X27" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="28">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>149.8827488303204</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C29" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D29" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E29" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F29" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G29" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H29" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I29" t="n">
         <v>6.056486585388456</v>
@@ -6478,37 +6478,37 @@
         <v>213.9208213689028</v>
       </c>
       <c r="O29" t="n">
-        <v>288.869842863085</v>
+        <v>288.8698428630849</v>
       </c>
       <c r="P29" t="n">
         <v>302.8243292694228</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.8243292694228</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="R29" t="n">
-        <v>302.8243292694228</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="S29" t="n">
-        <v>302.8243292694228</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="T29" t="n">
-        <v>302.8243292694228</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="U29" t="n">
-        <v>302.8243292694228</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="V29" t="n">
-        <v>302.8243292694228</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="W29" t="n">
-        <v>226.3535390498716</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X29" t="n">
-        <v>149.8827488303204</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.8827488303204</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>235.4688572440421</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C30" t="n">
-        <v>235.4688572440421</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D30" t="n">
-        <v>235.4688572440421</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E30" t="n">
-        <v>235.4688572440421</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F30" t="n">
-        <v>158.9980670244909</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G30" t="n">
-        <v>158.9980670244909</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H30" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I30" t="n">
         <v>6.056486585388456</v>
@@ -6548,16 +6548,16 @@
         <v>34.32218053364127</v>
       </c>
       <c r="L30" t="n">
-        <v>48.54258814289035</v>
+        <v>109.2712020278234</v>
       </c>
       <c r="M30" t="n">
-        <v>93.44655279152941</v>
+        <v>160.7102256089886</v>
       </c>
       <c r="N30" t="n">
-        <v>160.6116349577815</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="O30" t="n">
-        <v>227.8753077752407</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="P30" t="n">
         <v>302.8243292694228</v>
@@ -6569,25 +6569,25 @@
         <v>302.8243292694228</v>
       </c>
       <c r="S30" t="n">
-        <v>302.8243292694228</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="T30" t="n">
-        <v>235.4688572440421</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="U30" t="n">
-        <v>235.4688572440421</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="V30" t="n">
-        <v>235.4688572440421</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="W30" t="n">
-        <v>235.4688572440421</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="X30" t="n">
-        <v>235.4688572440421</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="Y30" t="n">
-        <v>235.4688572440421</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="31">
@@ -6721,31 +6721,31 @@
         <v>302.8243292694228</v>
       </c>
       <c r="Q32" t="n">
-        <v>302.8243292694228</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="R32" t="n">
-        <v>302.8243292694228</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="S32" t="n">
-        <v>302.8243292694228</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="T32" t="n">
-        <v>302.8243292694228</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="U32" t="n">
-        <v>226.3535390498716</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V32" t="n">
-        <v>149.8827488303204</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W32" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X32" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y32" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>127.1261785495037</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="C33" t="n">
         <v>50.65538832995244</v>
@@ -6770,25 +6770,25 @@
         <v>50.65538832995244</v>
       </c>
       <c r="G33" t="n">
-        <v>50.65538832995244</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H33" t="n">
-        <v>50.65538832995244</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I33" t="n">
-        <v>50.65538832995244</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J33" t="n">
         <v>6.056486585388456</v>
       </c>
       <c r="K33" t="n">
-        <v>34.32218053364127</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L33" t="n">
-        <v>85.76120411480645</v>
+        <v>81.0055080795706</v>
       </c>
       <c r="M33" t="n">
-        <v>160.7102256089886</v>
+        <v>155.9545295737528</v>
       </c>
       <c r="N33" t="n">
         <v>227.8753077752407</v>
@@ -6812,19 +6812,19 @@
         <v>280.0677589886061</v>
       </c>
       <c r="U33" t="n">
-        <v>280.0677589886061</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="V33" t="n">
-        <v>280.0677589886061</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="W33" t="n">
-        <v>203.5969687690549</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="X33" t="n">
-        <v>203.5969687690549</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="Y33" t="n">
-        <v>127.1261785495037</v>
+        <v>50.65538832995244</v>
       </c>
     </row>
     <row r="34">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.858978576188533</v>
+        <v>144.5271218361357</v>
       </c>
       <c r="C35" t="n">
-        <v>4.858978576188533</v>
+        <v>144.5271218361357</v>
       </c>
       <c r="D35" t="n">
-        <v>4.858978576188533</v>
+        <v>97.59054030972112</v>
       </c>
       <c r="E35" t="n">
-        <v>4.858978576188533</v>
+        <v>50.65395878330658</v>
       </c>
       <c r="F35" t="n">
-        <v>4.858978576188533</v>
+        <v>50.65395878330658</v>
       </c>
       <c r="G35" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="H35" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="I35" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="J35" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="K35" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="L35" t="n">
-        <v>62.82527037133855</v>
+        <v>49.71992081093093</v>
       </c>
       <c r="M35" t="n">
-        <v>122.9551302516716</v>
+        <v>95.72246436496982</v>
       </c>
       <c r="N35" t="n">
-        <v>183.0849901320047</v>
+        <v>141.7250079190087</v>
       </c>
       <c r="O35" t="n">
-        <v>228.9944424030888</v>
+        <v>171.9143764382638</v>
       </c>
       <c r="P35" t="n">
-        <v>242.9489288094267</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="Q35" t="n">
-        <v>242.9489288094267</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="R35" t="n">
-        <v>242.9489288094267</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="S35" t="n">
-        <v>242.9489288094267</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="T35" t="n">
-        <v>181.5981892110866</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="U35" t="n">
-        <v>181.5981892110866</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="V35" t="n">
-        <v>181.5981892110866</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="W35" t="n">
-        <v>127.5604577728687</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="X35" t="n">
-        <v>66.2097181745286</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.858978576188533</v>
+        <v>144.5271218361357</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58.89671001440647</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="C36" t="n">
-        <v>58.89671001440647</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="D36" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="E36" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="F36" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="G36" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="H36" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="I36" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="J36" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="K36" t="n">
-        <v>33.12467252444135</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="L36" t="n">
-        <v>62.55934916842736</v>
+        <v>49.71992081093093</v>
       </c>
       <c r="M36" t="n">
-        <v>122.6892090487605</v>
+        <v>95.72246436496982</v>
       </c>
       <c r="N36" t="n">
-        <v>182.8190689290936</v>
+        <v>141.7250079190087</v>
       </c>
       <c r="O36" t="n">
-        <v>242.9489288094267</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="P36" t="n">
-        <v>242.9489288094267</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="Q36" t="n">
-        <v>242.9489288094267</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="R36" t="n">
-        <v>242.9489288094267</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="S36" t="n">
-        <v>242.9489288094267</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="T36" t="n">
-        <v>242.9489288094267</v>
+        <v>144.5271218361357</v>
       </c>
       <c r="U36" t="n">
-        <v>181.5981892110866</v>
+        <v>97.59054030972112</v>
       </c>
       <c r="V36" t="n">
-        <v>120.2474496127465</v>
+        <v>50.65395878330658</v>
       </c>
       <c r="W36" t="n">
-        <v>58.89671001440647</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="X36" t="n">
-        <v>58.89671001440647</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="Y36" t="n">
-        <v>58.89671001440647</v>
+        <v>3.717377256892032</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="C37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="D37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="E37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="F37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="G37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="H37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="I37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="J37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="K37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="L37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="M37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="N37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="O37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="P37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="R37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="S37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="T37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="U37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="V37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="W37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="X37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.858978576188533</v>
+        <v>3.717377256892032</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54.24028313996722</v>
+        <v>91.99569979177249</v>
       </c>
       <c r="C38" t="n">
-        <v>3.980569333474243</v>
+        <v>91.99569979177249</v>
       </c>
       <c r="D38" t="n">
-        <v>3.980569333474243</v>
+        <v>91.99569979177249</v>
       </c>
       <c r="E38" t="n">
-        <v>3.980569333474243</v>
+        <v>50.65395878330658</v>
       </c>
       <c r="F38" t="n">
-        <v>3.980569333474243</v>
+        <v>50.65395878330658</v>
       </c>
       <c r="G38" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="H38" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="I38" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="J38" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="K38" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="L38" t="n">
-        <v>53.240114835218</v>
+        <v>49.71992081093093</v>
       </c>
       <c r="M38" t="n">
-        <v>86.55488926388679</v>
+        <v>95.72246436496982</v>
       </c>
       <c r="N38" t="n">
-        <v>135.8144347656306</v>
+        <v>141.7250079190087</v>
       </c>
       <c r="O38" t="n">
-        <v>185.0739802673743</v>
+        <v>171.9143764382638</v>
       </c>
       <c r="P38" t="n">
-        <v>199.0284666737122</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.7687528672192</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4999969464602</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4999969464602</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="T38" t="n">
-        <v>104.4999969464602</v>
+        <v>138.9322813181871</v>
       </c>
       <c r="U38" t="n">
-        <v>104.4999969464602</v>
+        <v>138.9322813181871</v>
       </c>
       <c r="V38" t="n">
-        <v>104.4999969464602</v>
+        <v>138.9322813181871</v>
       </c>
       <c r="W38" t="n">
-        <v>104.4999969464602</v>
+        <v>91.99569979177249</v>
       </c>
       <c r="X38" t="n">
-        <v>54.24028313996722</v>
+        <v>91.99569979177249</v>
       </c>
       <c r="Y38" t="n">
-        <v>54.24028313996722</v>
+        <v>91.99569979177249</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>199.0284666737122</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="C39" t="n">
-        <v>154.7597107529532</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="D39" t="n">
-        <v>154.7597107529532</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="E39" t="n">
-        <v>104.4999969464602</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="F39" t="n">
-        <v>54.24028313996722</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="G39" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="H39" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="I39" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="J39" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="K39" t="n">
-        <v>32.24626328172706</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="L39" t="n">
-        <v>46.46667089097615</v>
+        <v>49.71992081093093</v>
       </c>
       <c r="M39" t="n">
-        <v>91.37063553961521</v>
+        <v>94.62388545956999</v>
       </c>
       <c r="N39" t="n">
-        <v>140.630181041359</v>
+        <v>140.6264290136089</v>
       </c>
       <c r="O39" t="n">
-        <v>169.5766589815022</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0284666737122</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.0284666737122</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="R39" t="n">
-        <v>199.0284666737122</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="S39" t="n">
-        <v>199.0284666737122</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0284666737122</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="U39" t="n">
-        <v>199.0284666737122</v>
+        <v>138.9322813181871</v>
       </c>
       <c r="V39" t="n">
-        <v>199.0284666737122</v>
+        <v>91.99569979177249</v>
       </c>
       <c r="W39" t="n">
-        <v>199.0284666737122</v>
+        <v>45.05911826535795</v>
       </c>
       <c r="X39" t="n">
-        <v>199.0284666737122</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="Y39" t="n">
-        <v>199.0284666737122</v>
+        <v>3.717377256892032</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="C40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="D40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="E40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="F40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="G40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="H40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="I40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="J40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="K40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="L40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="M40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="N40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="O40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="P40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="R40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="S40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="T40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="U40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="V40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="W40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="X40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.980569333474243</v>
+        <v>3.717377256892032</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.42888947221851</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="C41" t="n">
-        <v>29.42888947221851</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="D41" t="n">
-        <v>29.42888947221851</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="E41" t="n">
-        <v>29.42888947221851</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="F41" t="n">
-        <v>29.42888947221851</v>
+        <v>33.08297658168565</v>
       </c>
       <c r="G41" t="n">
         <v>2.427883381458027</v>
@@ -7417,46 +7417,46 @@
         <v>2.427883381458027</v>
       </c>
       <c r="L41" t="n">
-        <v>17.30451212993423</v>
+        <v>32.47294022700112</v>
       </c>
       <c r="M41" t="n">
-        <v>47.34956897547731</v>
+        <v>62.5179970725442</v>
       </c>
       <c r="N41" t="n">
-        <v>77.3946258210204</v>
+        <v>92.56305391808729</v>
       </c>
       <c r="O41" t="n">
         <v>107.4396826665635</v>
       </c>
       <c r="P41" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="R41" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="S41" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="T41" t="n">
-        <v>90.73907587267374</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="U41" t="n">
-        <v>60.08398267244613</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="V41" t="n">
-        <v>29.42888947221851</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="W41" t="n">
-        <v>29.42888947221851</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="X41" t="n">
-        <v>29.42888947221851</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.42888947221851</v>
+        <v>94.39316298214089</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.42888947221851</v>
+        <v>33.08297658168565</v>
       </c>
       <c r="C42" t="n">
-        <v>29.42888947221851</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="D42" t="n">
-        <v>29.42888947221851</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="E42" t="n">
-        <v>29.42888947221851</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="F42" t="n">
-        <v>29.42888947221851</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="G42" t="n">
-        <v>29.42888947221851</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H42" t="n">
-        <v>29.42888947221851</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I42" t="n">
-        <v>29.42888947221851</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J42" t="n">
         <v>2.427883381458027</v>
       </c>
       <c r="K42" t="n">
-        <v>2.427883381458027</v>
+        <v>18.13716983242287</v>
       </c>
       <c r="L42" t="n">
-        <v>16.64829099070711</v>
+        <v>32.35757744167195</v>
       </c>
       <c r="M42" t="n">
-        <v>46.6933478362502</v>
+        <v>62.40263428721504</v>
       </c>
       <c r="N42" t="n">
-        <v>76.73840468179328</v>
+        <v>92.44769113275812</v>
       </c>
       <c r="O42" t="n">
-        <v>105.6848826219365</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="P42" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="Q42" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="R42" t="n">
-        <v>121.3941690729013</v>
+        <v>94.39316298214089</v>
       </c>
       <c r="S42" t="n">
-        <v>121.3941690729013</v>
+        <v>94.39316298214089</v>
       </c>
       <c r="T42" t="n">
-        <v>121.3941690729013</v>
+        <v>94.39316298214089</v>
       </c>
       <c r="U42" t="n">
-        <v>90.73907587267374</v>
+        <v>94.39316298214089</v>
       </c>
       <c r="V42" t="n">
-        <v>60.08398267244613</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="W42" t="n">
-        <v>29.42888947221851</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="X42" t="n">
-        <v>29.42888947221851</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.42888947221851</v>
+        <v>33.08297658168565</v>
       </c>
     </row>
     <row r="43">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.08297658168564</v>
+        <v>29.4288894722185</v>
       </c>
       <c r="C44" t="n">
-        <v>33.08297658168564</v>
+        <v>29.4288894722185</v>
       </c>
       <c r="D44" t="n">
         <v>2.427883381458027</v>
@@ -7654,46 +7654,46 @@
         <v>2.427883381458027</v>
       </c>
       <c r="L44" t="n">
-        <v>32.47294022700111</v>
+        <v>32.47294022700112</v>
       </c>
       <c r="M44" t="n">
-        <v>62.51799707254419</v>
+        <v>47.34956897547734</v>
       </c>
       <c r="N44" t="n">
-        <v>92.56305391808728</v>
+        <v>77.39462582102043</v>
       </c>
       <c r="O44" t="n">
         <v>107.4396826665635</v>
       </c>
       <c r="P44" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="R44" t="n">
-        <v>90.73907587267374</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="S44" t="n">
+        <v>121.3941690729014</v>
+      </c>
+      <c r="T44" t="n">
+        <v>90.73907587267375</v>
+      </c>
+      <c r="U44" t="n">
         <v>60.08398267244613</v>
       </c>
-      <c r="T44" t="n">
-        <v>60.08398267244613</v>
-      </c>
-      <c r="U44" t="n">
-        <v>33.08297658168564</v>
-      </c>
       <c r="V44" t="n">
-        <v>33.08297658168564</v>
+        <v>29.4288894722185</v>
       </c>
       <c r="W44" t="n">
-        <v>33.08297658168564</v>
+        <v>29.4288894722185</v>
       </c>
       <c r="X44" t="n">
-        <v>33.08297658168564</v>
+        <v>29.4288894722185</v>
       </c>
       <c r="Y44" t="n">
-        <v>33.08297658168564</v>
+        <v>29.4288894722185</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.672319191401765</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="C45" t="n">
-        <v>6.672319191401765</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="D45" t="n">
-        <v>6.672319191401765</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="E45" t="n">
-        <v>6.672319191401765</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="F45" t="n">
-        <v>6.672319191401765</v>
+        <v>33.08297658168565</v>
       </c>
       <c r="G45" t="n">
         <v>2.427883381458027</v>
@@ -7730,49 +7730,49 @@
         <v>2.427883381458027</v>
       </c>
       <c r="K45" t="n">
-        <v>2.427883381458027</v>
+        <v>18.13716983242287</v>
       </c>
       <c r="L45" t="n">
-        <v>32.35757744167192</v>
+        <v>32.35757744167195</v>
       </c>
       <c r="M45" t="n">
-        <v>62.40263428721501</v>
+        <v>62.40263428721504</v>
       </c>
       <c r="N45" t="n">
-        <v>92.4476911327581</v>
+        <v>92.44769113275812</v>
       </c>
       <c r="O45" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="P45" t="n">
-        <v>121.3941690729013</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="Q45" t="n">
-        <v>98.6375987920846</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="R45" t="n">
-        <v>98.6375987920846</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="S45" t="n">
-        <v>98.6375987920846</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="T45" t="n">
-        <v>98.6375987920846</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="U45" t="n">
-        <v>67.98250559185699</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="V45" t="n">
-        <v>37.32741239162938</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="W45" t="n">
-        <v>6.672319191401765</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="X45" t="n">
-        <v>6.672319191401765</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="Y45" t="n">
-        <v>6.672319191401765</v>
+        <v>60.08398267244613</v>
       </c>
     </row>
     <row r="46">
@@ -8066,13 +8066,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P3" t="n">
         <v>67.92252959633595</v>
@@ -8303,13 +8303,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M6" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N6" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O6" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P6" t="n">
         <v>67.92252959633595</v>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>89.35872216232903</v>
+        <v>92.69551391125015</v>
       </c>
       <c r="N8" t="n">
-        <v>83.98878642167108</v>
+        <v>87.37957094959813</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>38.8718120156598</v>
+        <v>41.07947370627261</v>
       </c>
       <c r="M9" t="n">
-        <v>16.76619772104769</v>
+        <v>19.34243478531801</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>29.09636626239171</v>
+        <v>31.51549612262141</v>
       </c>
       <c r="P9" t="n">
-        <v>51.91261060228356</v>
+        <v>53.85417558937374</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8692,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L11" t="n">
-        <v>65.00895600402521</v>
+        <v>78.097604147506</v>
       </c>
       <c r="M11" t="n">
-        <v>23.86371338847812</v>
+        <v>38.13372987968438</v>
       </c>
       <c r="N11" t="n">
-        <v>17.19178828862402</v>
+        <v>31.46180477983029</v>
       </c>
       <c r="O11" t="n">
-        <v>22.06748250983137</v>
+        <v>51.03774184036877</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8774,7 +8774,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>13.69345016832925</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>84.27780726850281</v>
       </c>
       <c r="L14" t="n">
-        <v>75.98907153795383</v>
+        <v>79.27897249523147</v>
       </c>
       <c r="M14" t="n">
-        <v>34.84382892240674</v>
+        <v>38.13372987968438</v>
       </c>
       <c r="N14" t="n">
-        <v>28.17190382255264</v>
+        <v>31.46180477983029</v>
       </c>
       <c r="O14" t="n">
-        <v>32.6039570120861</v>
+        <v>35.76093267816061</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9011,7 +9011,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L15" t="n">
-        <v>10.53647450225473</v>
+        <v>13.69345016832925</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>95.39764593815653</v>
+        <v>79.46957724290091</v>
       </c>
       <c r="M17" t="n">
         <v>54.25240332260944</v>
@@ -9178,7 +9178,7 @@
         <v>47.58047822275535</v>
       </c>
       <c r="O17" t="n">
-        <v>51.22834658803821</v>
+        <v>67.15641528329382</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9248,7 +9248,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>16.72833151279569</v>
+        <v>0.6096580698706511</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="P18" t="n">
         <v>5.093443300258059</v>
@@ -9415,10 +9415,10 @@
         <v>47.5804782227554</v>
       </c>
       <c r="O20" t="n">
-        <v>65.32378740252094</v>
+        <v>51.22834658803832</v>
       </c>
       <c r="P20" t="n">
-        <v>69.57222331010286</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9485,7 +9485,7 @@
         <v>40.20975561493429</v>
       </c>
       <c r="L21" t="n">
-        <v>29.16086407820686</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>16.11867344292509</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>5.093443300258059</v>
+        <v>50.37298082138998</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9652,7 +9652,7 @@
         <v>77.92902049098069</v>
       </c>
       <c r="O23" t="n">
-        <v>97.50495755151923</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9722,19 +9722,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>38.70423724981406</v>
+        <v>22.71974307173932</v>
       </c>
       <c r="P24" t="n">
-        <v>80.79952561761377</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,7 +9883,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>84.60094559083483</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N26" t="n">
         <v>77.92902049098069</v>
@@ -9956,19 +9956,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>20.78822754699985</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>46.46721571115037</v>
+        <v>38.70423724981406</v>
       </c>
       <c r="P27" t="n">
         <v>80.79952561761377</v>
@@ -10196,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>6.601069628814258</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>38.70423724981406</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P30" t="n">
-        <v>80.79952561761377</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10430,16 +10430,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L33" t="n">
-        <v>37.59456158779403</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M33" t="n">
-        <v>30.34854226822537</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>4.803733368925094</v>
       </c>
       <c r="O33" t="n">
         <v>46.46721571115037</v>
@@ -10591,16 +10591,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>108.5919157831171</v>
+        <v>96.50732160017657</v>
       </c>
       <c r="M35" t="n">
-        <v>69.63209547583574</v>
+        <v>55.36207898462948</v>
       </c>
       <c r="N35" t="n">
-        <v>62.96017037598165</v>
+        <v>48.69015388477538</v>
       </c>
       <c r="O35" t="n">
-        <v>68.17205934636959</v>
+        <v>52.2931868697746</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,19 +10667,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L36" t="n">
-        <v>15.36794851993629</v>
+        <v>32.10316762099981</v>
       </c>
       <c r="M36" t="n">
-        <v>15.37969215322627</v>
+        <v>1.109675662020038</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>31.49836559615139</v>
+        <v>15.35088584388851</v>
       </c>
       <c r="P36" t="n">
         <v>5.093443300258059</v>
@@ -10825,19 +10825,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L38" t="n">
-        <v>99.79722255745421</v>
+        <v>96.50732160017657</v>
       </c>
       <c r="M38" t="n">
-        <v>42.54615057516472</v>
+        <v>55.36207898462948</v>
       </c>
       <c r="N38" t="n">
-        <v>51.98005484205305</v>
+        <v>48.69015388477538</v>
       </c>
       <c r="O38" t="n">
-        <v>71.55599190259153</v>
+        <v>52.2931868697746</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,10 +10904,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>32.10316762099981</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>16.46056150590856</v>
       </c>
       <c r="P39" t="n">
-        <v>34.84274399945999</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,7 +11065,7 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>65.0670036147597</v>
+        <v>80.38864815725151</v>
       </c>
       <c r="M41" t="n">
         <v>39.24340554170442</v>
@@ -11074,7 +11074,7 @@
         <v>32.57148044185033</v>
       </c>
       <c r="O41" t="n">
-        <v>52.14741750238881</v>
+        <v>36.82577295989702</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493427</v>
+        <v>56.07772172701996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>20.96140941234373</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11305,13 +11305,13 @@
         <v>80.38864815725151</v>
       </c>
       <c r="M44" t="n">
-        <v>39.24340554170441</v>
+        <v>23.92176099921263</v>
       </c>
       <c r="N44" t="n">
-        <v>32.57148044185032</v>
+        <v>32.57148044185033</v>
       </c>
       <c r="O44" t="n">
-        <v>36.825772959897</v>
+        <v>52.14741750238881</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493427</v>
+        <v>56.07772172701996</v>
       </c>
       <c r="L45" t="n">
-        <v>15.86796611208567</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -22546,37 +22546,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364.5563275970632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>333.5971194742085</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>319.1317556432476</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>359.9585549362873</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>399.146417573369</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>422.3372670711946</v>
+        <v>22.33726707119455</v>
       </c>
       <c r="H2" t="n">
-        <v>351.2646082720821</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>259.3256225831108</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>114.4715681708149</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>78.22308851520961</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766588</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,37 +22585,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.40184904719004</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>74.33416843326191</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.6151832766775</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>219.5016765828794</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>238.8380493076577</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>220.0295900296067</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8013691764946</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>313.3044420010231</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>325.3917254792934</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>348.8168793035129</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.9289763951821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,34 +22625,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203.8424276152394</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0988061285559</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>138.5600717100643</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>119.8373846403433</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>89.37922894870135</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>24.57889804244016</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,31 +22670,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.52858488856606</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>159.5976691093343</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>209.5797834947361</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>230.4332280611984</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6550702462619</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>249.2999251801724</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>283.2492567629311</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>230.033063710963</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>242.8962664135933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,76 +22704,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.175320970127</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>165.5867821959998</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>141.3987433365328</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>136.4317244039137</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>131.7685403657761</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>169.30467002737</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>168.2025540396188</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>169.8493025891331</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>137.2497006419296</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505842</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>71.46654840866277</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.66533643318368</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516952</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>80.66114959698193</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028562</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>157.5243583765053</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>224.2138859994434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>244.9169435351811</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>218.3869624620415</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2234139120339</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>237.3615500762718</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>294.4857951463376</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>217.7416213385031</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>215.5502738121359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,37 +22783,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>364.5563275970632</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>333.5971194742085</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>319.1317556432476</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>359.9585549362873</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>399.146417573369</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>422.3372670711946</v>
+        <v>22.33726707119455</v>
       </c>
       <c r="H5" t="n">
-        <v>351.2646082720821</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>259.3256225831108</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>114.4715681708149</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>78.22308851520961</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>38.49084836766588</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,37 +22822,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.40184904719004</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>74.33416843326191</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>134.6151832766775</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>219.5016765828794</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>238.8380493076577</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>220.0295900296067</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8013691764946</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>313.3044420010231</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>325.3917254792934</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>348.8168793035129</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>377.9289763951821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,34 +22862,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>203.8424276152394</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0988061285559</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>138.5600717100643</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>119.8373846403433</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>89.37922894870135</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>24.57889804244016</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,31 +22907,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.52858488856606</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>159.5976691093343</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>209.5797834947361</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>230.4332280611984</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6550702462619</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>249.2999251801724</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>283.2492567629311</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>230.033063710963</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>242.8962664135933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.175320970127</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>165.5867821959998</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>141.3987433365328</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>136.4317244039137</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>131.7685403657761</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>169.30467002737</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>168.2025540396188</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>169.8493025891331</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>137.2497006419296</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>95.63058149505842</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>71.46654840866277</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>68.66533643318368</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>56.06123914516952</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>80.66114959698193</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>98.35025284028562</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>157.5243583765053</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>224.2138859994434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>244.9169435351811</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>218.3869624620415</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2234139120339</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>237.3615500762718</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>294.4857951463376</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>217.7416213385031</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>215.5502738121359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,37 +23020,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>364.5563275970632</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>333.5971194742085</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>319.1317556432476</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>359.9585549362873</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>399.146417573369</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>422.180569077725</v>
+        <v>22.19957225555376</v>
       </c>
       <c r="H8" t="n">
-        <v>349.6598249464623</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>253.2845231898766</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>101.17202184758</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>58.29051612840928</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>13.76272976322227</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23062,34 +23062,34 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>51.80080109985099</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>117.6935628343943</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>209.6584962505987</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>235.2672937814706</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.3436445631938</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>248.788833337017</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>313.3044420010231</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>325.3917254792934</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>348.8168793035129</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.9289763951821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,34 +23099,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>203.8424276152394</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0149653106349</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>137.7503459159327</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>116.9507599882392</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>81.45811026959613</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>11.04044456262879</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,31 +23144,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.82637802552915</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>154.3921839405207</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>208.0224770741423</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>230.0952907293151</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6495544029776</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>249.2999251801724</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>283.2492567629311</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>230.033063710963</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>242.8962664135933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,76 +23178,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.175320970127</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>165.5867821959998</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>141.3987433365328</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>136.4317244039137</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>131.7685403657761</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2343807020206</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>167.5776180378764</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>167.7355108777182</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>132.2802453397308</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>87.46423987719797</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>61.01644271081538</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>57.6471651877402</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>45.30505538511905</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>70.7260729557852</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>89.84907843621555</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.6385858692978</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>221.05342233419</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>243.6919922925021</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>218.0866353446397</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>291.219579948833</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>237.3615500762718</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>294.4857951463376</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>217.7416213385031</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>215.5502738121359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,25 +23263,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D11" t="n">
-        <v>319.1317556432476</v>
+        <v>293.378161936502</v>
       </c>
       <c r="E11" t="n">
-        <v>359.9585549362873</v>
+        <v>330.719688330082</v>
       </c>
       <c r="F11" t="n">
-        <v>399.146417573369</v>
+        <v>369.9075509671637</v>
       </c>
       <c r="G11" t="n">
-        <v>408.5377606314286</v>
+        <v>392.4834572065145</v>
       </c>
       <c r="H11" t="n">
-        <v>329.9979705112284</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
-        <v>220.6491724957633</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31017767184309</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.0127573810344</v>
+        <v>158.7738907748291</v>
       </c>
       <c r="C12" t="n">
-        <v>203.8424276152394</v>
+        <v>174.6035610090341</v>
       </c>
       <c r="D12" t="n">
-        <v>172.0989423795122</v>
+        <v>142.8600757733069</v>
       </c>
       <c r="E12" t="n">
         <v>187.4605452976028</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>147.5852192972233</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>120.4135458170332</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>93.54030797786366</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>43.32485933570483</v>
+        <v>55.06912032196683</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>139.1693410830749</v>
@@ -23500,7 +23500,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
-        <v>293.18278999432</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E14" t="n">
         <v>359.9585549362873</v>
@@ -23509,7 +23509,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>395.7733581637921</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
         <v>344.9668206262274</v>
@@ -23518,7 +23518,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>36.33006213791447</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.2082294730605</v>
+        <v>38.96936286685519</v>
       </c>
       <c r="R14" t="n">
-        <v>158.0173981791383</v>
+        <v>151.6343805165085</v>
       </c>
       <c r="S14" t="n">
         <v>224.8250298051639</v>
@@ -23560,10 +23560,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>319.5780126973076</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.9289763951821</v>
+        <v>352.1753826884365</v>
       </c>
     </row>
     <row r="15">
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>134.8208168295868</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H15" t="n">
-        <v>109.4334302831045</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I15" t="n">
-        <v>85.65330914928722</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>32.34474380177621</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S15" t="n">
-        <v>203.4683135038341</v>
+        <v>174.2294468976288</v>
       </c>
       <c r="T15" t="n">
         <v>229.1070318577418</v>
@@ -23633,13 +23633,13 @@
         <v>249.633423953496</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>220.0610585739671</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>254.0103901567258</v>
       </c>
       <c r="X15" t="n">
-        <v>230.033063710963</v>
+        <v>204.2794700042174</v>
       </c>
       <c r="Y15" t="n">
         <v>242.8962664135933</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>376.3647837635894</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>299.6092805770971</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>190.260482561632</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>22.32810651156813</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>203.3946336666862</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>267.9469019518928</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>280.034185430163</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>308.8659580282389</v>
       </c>
       <c r="Y17" t="n">
         <v>377.9289763951821</v>
@@ -23828,13 +23828,13 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H18" t="n">
-        <v>90.02485588290185</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
-        <v>63.15161804373234</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>12.93616940157351</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,22 +23855,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>121.7474243858095</v>
+        <v>99.21841980780093</v>
       </c>
       <c r="S18" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T18" t="n">
-        <v>229.1070318577418</v>
+        <v>183.7494918086114</v>
       </c>
       <c r="U18" t="n">
-        <v>249.633423953496</v>
+        <v>204.2758839043657</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>203.942385131042</v>
       </c>
       <c r="W18" t="n">
         <v>283.2492567629311</v>
@@ -23977,13 +23977,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>314.601014887157</v>
       </c>
       <c r="F20" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>381.7714025374457</v>
       </c>
       <c r="H20" t="n">
         <v>344.9668206262274</v>
@@ -24016,16 +24016,16 @@
         <v>68.20822947306053</v>
       </c>
       <c r="R20" t="n">
-        <v>180.8732471227138</v>
+        <v>135.5157070735834</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4674897560336</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T20" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>203.3946336666862</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24034,7 +24034,7 @@
         <v>280.034185430163</v>
       </c>
       <c r="X20" t="n">
-        <v>308.8659580282389</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
         <v>377.9289763951821</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.6552173319041</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
         <v>203.8424276152394</v>
@@ -24059,7 +24059,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
-        <v>128.6268080761936</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
         <v>160.7697824785144</v>
@@ -24068,7 +24068,7 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I21" t="n">
-        <v>91.0872413955973</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J21" t="n">
         <v>58.29370945070389</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R21" t="n">
-        <v>139.169341083075</v>
+        <v>93.81180103394459</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>158.1107734547038</v>
       </c>
       <c r="T21" t="n">
-        <v>183.7494918086114</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
-        <v>249.633423953496</v>
+        <v>209.682502678222</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24116,7 +24116,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>242.8962664135933</v>
+        <v>197.538726364463</v>
       </c>
     </row>
     <row r="22">
@@ -24208,16 +24208,16 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>333.5971194742085</v>
+        <v>257.8910371568527</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>252.4498383381207</v>
       </c>
       <c r="E23" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>323.4403352560133</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
         <v>421.7223238127198</v>
@@ -24253,25 +24253,25 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R23" t="n">
-        <v>114.1913298175869</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S23" t="n">
-        <v>149.1189474878082</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T23" t="n">
-        <v>141.6315935982777</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
         <v>248.7521737158166</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>348.8168793035129</v>
+        <v>273.1107969861572</v>
       </c>
       <c r="Y23" t="n">
         <v>377.9289763951821</v>
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>85.06370016115872</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H24" t="n">
-        <v>59.6763136146765</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I24" t="n">
-        <v>46.94387249909253</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R24" t="n">
         <v>139.1693410830749</v>
@@ -24341,19 +24341,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>173.5938428628167</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>242.8962664135933</v>
+        <v>176.2143491084664</v>
       </c>
     </row>
     <row r="25">
@@ -24445,19 +24445,19 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>257.8910371568527</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>284.2524726189316</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>346.0162414953641</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
         <v>344.9668206262274</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.526312167933597</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
-        <v>180.8732471227138</v>
+        <v>105.1671648053581</v>
       </c>
       <c r="S26" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878082</v>
       </c>
       <c r="T26" t="n">
         <v>217.3376759156334</v>
@@ -24502,10 +24502,10 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>258.7098081741665</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
@@ -24527,7 +24527,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>96.3928600621565</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
         <v>187.4605452976028</v>
@@ -24566,28 +24566,28 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>139.1693410830749</v>
+        <v>63.46325876571922</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4683135038341</v>
+        <v>127.7622311864784</v>
       </c>
       <c r="T27" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9515066483691</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V27" t="n">
-        <v>173.5938428628167</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
         <v>207.5431744455754</v>
       </c>
       <c r="X27" t="n">
-        <v>230.033063710963</v>
+        <v>185.8801509838446</v>
       </c>
       <c r="Y27" t="n">
         <v>242.8962664135933</v>
@@ -24682,7 +24682,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>257.8910371568527</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
         <v>319.1317556432476</v>
@@ -24700,7 +24700,7 @@
         <v>344.9668206262274</v>
       </c>
       <c r="I29" t="n">
-        <v>168.9361053056355</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J29" t="n">
         <v>62.27902778684214</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.2082294730605</v>
+        <v>1.526312167933639</v>
       </c>
       <c r="R29" t="n">
         <v>180.8732471227138</v>
@@ -24736,16 +24736,16 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W29" t="n">
         <v>249.6856431619377</v>
       </c>
       <c r="X29" t="n">
-        <v>273.1107969861572</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24770,16 +24770,16 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>98.27826580796821</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
         <v>160.7697824785144</v>
       </c>
       <c r="H30" t="n">
-        <v>59.6763136146765</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I30" t="n">
-        <v>32.803075775507</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J30" t="n">
         <v>58.29370945070387</v>
@@ -24809,10 +24809,10 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S30" t="n">
-        <v>203.4683135038341</v>
+        <v>136.7863961987072</v>
       </c>
       <c r="T30" t="n">
-        <v>162.4251145526148</v>
+        <v>153.4009495403861</v>
       </c>
       <c r="U30" t="n">
         <v>249.633423953496</v>
@@ -24821,13 +24821,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.8962664135933</v>
+        <v>167.1901840962376</v>
       </c>
     </row>
     <row r="31">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>297.8744102919363</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
         <v>333.5971194742085</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.2082294730605</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>180.8732471227138</v>
+        <v>106.6934769732917</v>
       </c>
       <c r="S32" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878082</v>
       </c>
       <c r="T32" t="n">
         <v>217.3376759156334</v>
@@ -24976,10 +24976,10 @@
         <v>173.0460913984609</v>
       </c>
       <c r="V32" t="n">
-        <v>237.5983596836674</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>249.6856431619377</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
         <v>348.8168793035129</v>
@@ -24998,7 +24998,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
-        <v>128.1363452978837</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
         <v>172.0989423795122</v>
@@ -25010,7 +25010,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7697824785144</v>
+        <v>116.6168697513961</v>
       </c>
       <c r="H33" t="n">
         <v>135.3823959320322</v>
@@ -25019,7 +25019,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J33" t="n">
-        <v>14.14079672358552</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U33" t="n">
-        <v>249.633423953496</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25061,10 +25061,10 @@
         <v>207.5431744455754</v>
       </c>
       <c r="X33" t="n">
-        <v>230.033063710963</v>
+        <v>154.3269813936073</v>
       </c>
       <c r="Y33" t="n">
-        <v>167.1901840962376</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="34">
@@ -25159,16 +25159,16 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1317556432476</v>
+        <v>272.6645399320972</v>
       </c>
       <c r="E35" t="n">
-        <v>359.9585549362873</v>
+        <v>313.4913392251369</v>
       </c>
       <c r="F35" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7223238127198</v>
+        <v>375.2551081015694</v>
       </c>
       <c r="H35" t="n">
         <v>344.9668206262274</v>
@@ -25207,7 +25207,7 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T35" t="n">
-        <v>156.6004437132767</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U35" t="n">
         <v>248.7521737158166</v>
@@ -25216,13 +25216,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>271.8943713554576</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>288.0796471011562</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>317.1917441928255</v>
+        <v>337.0006527968009</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>118.6015882556765</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
@@ -25286,16 +25286,16 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T36" t="n">
-        <v>229.1070318577418</v>
+        <v>188.1787082593605</v>
       </c>
       <c r="U36" t="n">
-        <v>188.8961917511394</v>
+        <v>203.1662082423456</v>
       </c>
       <c r="V36" t="n">
-        <v>188.5626929778157</v>
+        <v>202.832709469022</v>
       </c>
       <c r="W36" t="n">
-        <v>222.5120245605744</v>
+        <v>236.7820410517807</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25393,19 +25393,19 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>283.8400028057804</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>359.9585549362873</v>
+        <v>319.0302313379061</v>
       </c>
       <c r="F38" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>375.2551081015694</v>
       </c>
       <c r="H38" t="n">
         <v>344.9668206262274</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.45111280463246</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R38" t="n">
-        <v>137.0471787611624</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S38" t="n">
         <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3376759156334</v>
+        <v>170.870460204483</v>
       </c>
       <c r="U38" t="n">
         <v>248.7521737158166</v>
@@ -25453,10 +25453,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>278.924509768143</v>
       </c>
       <c r="X38" t="n">
-        <v>299.0597626350849</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25472,19 +25472,19 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>160.016359253688</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>137.7034286291748</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>124.2272314568959</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>111.0126658100864</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H39" t="n">
         <v>135.3823959320322</v>
@@ -25526,16 +25526,16 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U39" t="n">
-        <v>249.633423953496</v>
+        <v>203.1662082423456</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>202.832709469022</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>236.7820410517807</v>
       </c>
       <c r="X39" t="n">
-        <v>230.033063710963</v>
+        <v>189.1047401125817</v>
       </c>
       <c r="Y39" t="n">
         <v>242.8962664135933</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.5563275970632</v>
+        <v>334.2077853288378</v>
       </c>
       <c r="C41" t="n">
         <v>333.5971194742085</v>
@@ -25639,10 +25639,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>368.7978753051437</v>
       </c>
       <c r="G41" t="n">
-        <v>394.9913277828669</v>
+        <v>391.3737815444944</v>
       </c>
       <c r="H41" t="n">
         <v>344.9668206262274</v>
@@ -25681,13 +25681,13 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T41" t="n">
-        <v>186.9891336474081</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U41" t="n">
-        <v>218.4036314475912</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V41" t="n">
-        <v>282.9558997327978</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
         <v>325.3917254792934</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>351.1979803653293</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>203.8424276152394</v>
+        <v>173.493885347014</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25730,7 +25730,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J42" t="n">
-        <v>31.56271342085099</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R42" t="n">
-        <v>139.1693410830749</v>
+        <v>112.4383450532221</v>
       </c>
       <c r="S42" t="n">
         <v>203.4683135038341</v>
@@ -25763,19 +25763,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U42" t="n">
-        <v>219.2848816852707</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V42" t="n">
         <v>218.951382911947</v>
       </c>
       <c r="W42" t="n">
-        <v>252.9007144947058</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>212.547724145368</v>
       </c>
     </row>
     <row r="43">
@@ -25870,7 +25870,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>288.7832133750223</v>
+        <v>292.4007596133948</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
@@ -25912,19 +25912,19 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R44" t="n">
-        <v>150.5247048544884</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S44" t="n">
-        <v>194.4764875369386</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3376759156334</v>
+        <v>186.9891336474081</v>
       </c>
       <c r="U44" t="n">
-        <v>222.0211776859637</v>
+        <v>218.4036314475912</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>282.9558997327978</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25955,10 +25955,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>173.9843481253239</v>
+        <v>147.2533520954711</v>
       </c>
       <c r="G45" t="n">
-        <v>156.5677910266701</v>
+        <v>130.4212402102891</v>
       </c>
       <c r="H45" t="n">
         <v>135.3823959320322</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
         <v>139.1693410830749</v>
@@ -26003,7 +26003,7 @@
         <v>219.2848816852707</v>
       </c>
       <c r="V45" t="n">
-        <v>218.951382911947</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
         <v>252.9007144947058</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345502.5502405944</v>
+        <v>1161403.503509892</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345502.5502405944</v>
+        <v>1161403.503509892</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>361744.7971385387</v>
+        <v>1159556.284599115</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>401368.2336216654</v>
+        <v>410745.3011481889</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>408583.4519694597</v>
+        <v>410745.3011481887</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>421508.0101476429</v>
+        <v>421508.010147643</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>442177.2793143577</v>
+        <v>442177.2793143578</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>442177.2793143577</v>
+        <v>442177.2793143578</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>442177.2793143578</v>
+        <v>442177.2793143576</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>431940.3136642924</v>
+        <v>422260.7217881555</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>424492.3168671789</v>
+        <v>422260.7217881555</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>411486.2502266838</v>
+        <v>411486.2502266839</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149110.4700033219</v>
+        <v>523065.0735850831</v>
       </c>
       <c r="C2" t="n">
-        <v>149110.4700033219</v>
+        <v>523065.0735850832</v>
       </c>
       <c r="D2" t="n">
-        <v>157513.2920305573</v>
+        <v>523071.1018641118</v>
       </c>
       <c r="E2" t="n">
-        <v>178757.7643174918</v>
+        <v>182473.7005854295</v>
       </c>
       <c r="F2" t="n">
-        <v>181617.0048491209</v>
+        <v>182473.7005854295</v>
       </c>
       <c r="G2" t="n">
-        <v>186671.0302293387</v>
+        <v>186671.0302293386</v>
       </c>
       <c r="H2" t="n">
         <v>186671.0302293386</v>
       </c>
       <c r="I2" t="n">
-        <v>194573.8416215356</v>
+        <v>194573.8416215355</v>
       </c>
       <c r="J2" t="n">
         <v>194573.8416215356</v>
@@ -26343,13 +26343,13 @@
         <v>194573.8416215355</v>
       </c>
       <c r="L2" t="n">
-        <v>194573.8416215355</v>
+        <v>194573.8416215356</v>
       </c>
       <c r="M2" t="n">
-        <v>190675.9279039216</v>
+        <v>186959.9916359838</v>
       </c>
       <c r="N2" t="n">
-        <v>187816.6873722924</v>
+        <v>186959.9916359838</v>
       </c>
       <c r="O2" t="n">
         <v>182762.6619920747</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33381.84090058054</v>
+        <v>29333.53725074568</v>
       </c>
       <c r="E3" t="n">
-        <v>96048.07996408457</v>
+        <v>104106.5114546858</v>
       </c>
       <c r="F3" t="n">
-        <v>3146.088583474433</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5319.599114479559</v>
+        <v>4417.886610604115</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20170.61568789217</v>
+        <v>408245.1165635663</v>
       </c>
       <c r="C4" t="n">
-        <v>20170.61568789217</v>
+        <v>408245.1165635664</v>
       </c>
       <c r="D4" t="n">
-        <v>18079.43270823199</v>
+        <v>398728.4117541137</v>
       </c>
       <c r="E4" t="n">
-        <v>11362.13981210634</v>
+        <v>12642.05016719988</v>
       </c>
       <c r="F4" t="n">
-        <v>12346.97144006269</v>
+        <v>12642.05016719988</v>
       </c>
       <c r="G4" t="n">
         <v>14258.62872295445</v>
@@ -26438,7 +26438,7 @@
         <v>14258.62872295445</v>
       </c>
       <c r="I4" t="n">
-        <v>17707.39104435229</v>
+        <v>17707.39104435228</v>
       </c>
       <c r="J4" t="n">
         <v>17707.39104435228</v>
@@ -26450,10 +26450,10 @@
         <v>17707.39104435228</v>
       </c>
       <c r="M4" t="n">
-        <v>15964.11789502194</v>
+        <v>14381.68319031483</v>
       </c>
       <c r="N4" t="n">
-        <v>14746.50781774631</v>
+        <v>14381.68319031483</v>
       </c>
       <c r="O4" t="n">
         <v>12753.34207254285</v>
@@ -26475,13 +26475,13 @@
         <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
-        <v>41271.79307559616</v>
+        <v>41168.74359302536</v>
       </c>
       <c r="E5" t="n">
-        <v>11039.24867339523</v>
+        <v>11906.86567606057</v>
       </c>
       <c r="F5" t="n">
-        <v>11706.83969785809</v>
+        <v>11906.86567606057</v>
       </c>
       <c r="G5" t="n">
         <v>12886.88102139042</v>
@@ -26502,10 +26502,10 @@
         <v>14732.07239129852</v>
       </c>
       <c r="M5" t="n">
-        <v>13821.96630430657</v>
+        <v>12954.34930164123</v>
       </c>
       <c r="N5" t="n">
-        <v>13154.37527984371</v>
+        <v>12954.34930164123</v>
       </c>
       <c r="O5" t="n">
         <v>11974.33395631139</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211813.812547718</v>
+        <v>-225978.1610031027</v>
       </c>
       <c r="C6" t="n">
-        <v>88517.7952839205</v>
+        <v>74353.44682853595</v>
       </c>
       <c r="D6" t="n">
-        <v>64780.22534614857</v>
+        <v>53796.23211743857</v>
       </c>
       <c r="E6" t="n">
-        <v>60308.29586790563</v>
+        <v>38292.39608057279</v>
       </c>
       <c r="F6" t="n">
-        <v>154417.1051277257</v>
+        <v>142398.9075352586</v>
       </c>
       <c r="G6" t="n">
-        <v>154205.9213705143</v>
+        <v>139772.5443785659</v>
       </c>
       <c r="H6" t="n">
-        <v>159525.5204849937</v>
+        <v>144190.43098917</v>
       </c>
       <c r="I6" t="n">
-        <v>154064.063477376</v>
+        <v>139088.1926811975</v>
       </c>
       <c r="J6" t="n">
-        <v>162134.3781858848</v>
+        <v>147158.5073897064</v>
       </c>
       <c r="K6" t="n">
-        <v>162134.3781858847</v>
+        <v>147158.5073897063</v>
       </c>
       <c r="L6" t="n">
-        <v>162134.3781858847</v>
+        <v>147158.5073897064</v>
       </c>
       <c r="M6" t="n">
-        <v>160889.8437045931</v>
+        <v>144302.004257597</v>
       </c>
       <c r="N6" t="n">
-        <v>159915.8042747024</v>
+        <v>144302.004257597</v>
       </c>
       <c r="O6" t="n">
-        <v>158034.9859632204</v>
+        <v>142522.2433657029</v>
       </c>
       <c r="P6" t="n">
-        <v>158034.9859632204</v>
+        <v>142522.2433657029</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
-        <v>350.6510585135856</v>
+        <v>345.924018028686</v>
       </c>
       <c r="E3" t="n">
         <v>464.6395681836371</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F4" t="n">
-        <v>25.94896564892766</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="G4" t="n">
         <v>45.35754004913036</v>
@@ -26822,10 +26822,10 @@
         <v>75.70608231735571</v>
       </c>
       <c r="M4" t="n">
-        <v>60.73723220235667</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="N4" t="n">
-        <v>49.75711666842804</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="O4" t="n">
         <v>30.34854226822534</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.97862587554681</v>
+        <v>34.25158539064714</v>
       </c>
       <c r="E3" t="n">
-        <v>113.9885096700515</v>
+        <v>118.7155501549512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F4" t="n">
-        <v>10.98011553392862</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.4085744002027</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N4" t="n">
-        <v>10.98011553392862</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>19.4085744002027</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,37 +27378,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27417,37 +27417,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="3">
@@ -27457,34 +27457,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27502,31 +27502,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="4">
@@ -27536,76 +27536,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>175.175320970127</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>165.5867821959998</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>141.3987433365328</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>215.5502738121359</v>
       </c>
     </row>
     <row r="5">
@@ -27615,37 +27615,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27654,37 +27654,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="6">
@@ -27694,34 +27694,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27739,31 +27739,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="7">
@@ -27773,76 +27773,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.175320970127</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>165.5867821959998</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>141.3987433365328</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>215.5502738121359</v>
       </c>
     </row>
     <row r="8">
@@ -27852,37 +27852,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>349.8544412414009</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>254.0171432031191</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>102.7848928118222</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>60.70779161014215</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>16.76157374843149</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27891,37 +27891,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3.201821678392491</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>54.5334818255964</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>119.7456922541478</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>210.8522046198834</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>235.7003286962431</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.4268309741391</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>248.7903535912433</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="9">
@@ -27931,34 +27931,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>161.0251329071496</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>137.8485434927983</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>117.3008285524511</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>82.41872516662653</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>12.68228842614342</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,31 +27976,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>55.12426280168498</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>155.0234668188626</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>208.2113357199305</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>230.1362732784248</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>249.650223323801</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="10">
@@ -28010,76 +28010,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>175.175320970127</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>165.5867821959998</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>141.3987433365328</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>169.2429048733869</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>167.6534056705688</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>167.9918559584403</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>132.882904255322</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>88.45459360501792</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>62.28375451557027</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>58.98336779562749</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>46.60948608155044</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>71.93092583216584</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>90.88003821672547</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>152.3523689825176</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>221.4367000758017</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>243.8405453516751</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>218.1230568041136</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>291.2200449036348</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>215.5502738121359</v>
       </c>
     </row>
     <row r="11">
@@ -31080,7 +31080,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U2" t="n">
         <v>0.1002363602453993</v>
@@ -31123,7 +31123,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I3" t="n">
         <v>23.08140185102458</v>
@@ -31138,7 +31138,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N3" t="n">
         <v>174.3572036132365</v>
@@ -31208,10 +31208,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L4" t="n">
         <v>83.55886825184406</v>
@@ -31220,13 +31220,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O4" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q4" t="n">
         <v>47.06253732834386</v>
@@ -31235,7 +31235,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T4" t="n">
         <v>2.40141054655538</v>
@@ -31317,7 +31317,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T5" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U5" t="n">
         <v>0.1002363602453993</v>
@@ -31360,7 +31360,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H6" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I6" t="n">
         <v>23.08140185102458</v>
@@ -31375,7 +31375,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M6" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N6" t="n">
         <v>174.3572036132365</v>
@@ -31445,10 +31445,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J7" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K7" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L7" t="n">
         <v>83.55886825184406</v>
@@ -31457,13 +31457,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N7" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O7" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q7" t="n">
         <v>47.06253732834386</v>
@@ -31472,7 +31472,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S7" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T7" t="n">
         <v>2.40141054655538</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.409652496537027</v>
+        <v>1.390649318708284</v>
       </c>
       <c r="H8" t="n">
-        <v>14.43660363015983</v>
+        <v>14.24198733522122</v>
       </c>
       <c r="I8" t="n">
-        <v>54.34562787274376</v>
+        <v>53.61300785950118</v>
       </c>
       <c r="J8" t="n">
-        <v>119.6424935779595</v>
+        <v>118.0296226137174</v>
       </c>
       <c r="K8" t="n">
-        <v>179.3130837563719</v>
+        <v>176.8958082746391</v>
       </c>
       <c r="L8" t="n">
-        <v>222.453736347267</v>
+        <v>219.4548923620578</v>
       </c>
       <c r="M8" t="n">
-        <v>247.5226439325573</v>
+        <v>244.1858521836362</v>
       </c>
       <c r="N8" t="n">
-        <v>251.5278190883432</v>
+        <v>248.1370345604161</v>
       </c>
       <c r="O8" t="n">
-        <v>237.5105870759031</v>
+        <v>234.3087653975106</v>
       </c>
       <c r="P8" t="n">
-        <v>202.7097910676452</v>
+        <v>199.9771103418998</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.2266110354129</v>
+        <v>150.1744816156593</v>
       </c>
       <c r="R8" t="n">
-        <v>88.54908363559406</v>
+        <v>87.35537526630934</v>
       </c>
       <c r="S8" t="n">
-        <v>32.12245626483752</v>
+        <v>31.68942135006506</v>
       </c>
       <c r="T8" t="n">
-        <v>6.170753803590836</v>
+        <v>6.087567392645517</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1112519454966627</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7440629821749094</v>
       </c>
       <c r="H9" t="n">
-        <v>7.284279536291656</v>
+        <v>7.1860819594261</v>
       </c>
       <c r="I9" t="n">
-        <v>25.96802650312875</v>
+        <v>25.61795793891684</v>
       </c>
       <c r="J9" t="n">
-        <v>71.25824954189763</v>
+        <v>70.29763464486723</v>
       </c>
       <c r="K9" t="n">
-        <v>121.7916983141008</v>
+        <v>120.1498544505861</v>
       </c>
       <c r="L9" t="n">
-        <v>163.7639684124062</v>
+        <v>161.5563067217934</v>
       </c>
       <c r="M9" t="n">
-        <v>191.1048268899041</v>
+        <v>188.5285898256338</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>179.4506412376083</v>
+        <v>177.0315113773786</v>
       </c>
       <c r="P9" t="n">
-        <v>144.0249602411744</v>
+        <v>142.0833952540843</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.27687176395656</v>
+        <v>94.97898698780074</v>
       </c>
       <c r="R9" t="n">
-        <v>46.82845645583321</v>
+        <v>46.19717357749133</v>
       </c>
       <c r="S9" t="n">
-        <v>14.00950219627391</v>
+        <v>13.8206435504857</v>
       </c>
       <c r="T9" t="n">
-        <v>3.040078516735708</v>
+        <v>2.999095967626059</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04895151198519143</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6237974095599255</v>
       </c>
       <c r="H10" t="n">
-        <v>5.621913692234211</v>
+        <v>5.546126059541886</v>
       </c>
       <c r="I10" t="n">
-        <v>19.0156344518515</v>
+        <v>18.7592893711294</v>
       </c>
       <c r="J10" t="n">
-        <v>44.70513577147795</v>
+        <v>44.10247685588673</v>
       </c>
       <c r="K10" t="n">
-        <v>73.46427094760037</v>
+        <v>72.47391721978042</v>
       </c>
       <c r="L10" t="n">
-        <v>94.00897394969145</v>
+        <v>92.74166214493657</v>
       </c>
       <c r="M10" t="n">
-        <v>99.11928199917631</v>
+        <v>97.78307939128902</v>
       </c>
       <c r="N10" t="n">
-        <v>96.76244701572442</v>
+        <v>95.45801631929302</v>
       </c>
       <c r="O10" t="n">
-        <v>89.37578127490541</v>
+        <v>88.17092839852477</v>
       </c>
       <c r="P10" t="n">
-        <v>76.47642102401214</v>
+        <v>75.44546124350222</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.94830983555142</v>
+        <v>52.23452672233158</v>
       </c>
       <c r="R10" t="n">
-        <v>28.43147762964252</v>
+        <v>28.04819988803082</v>
       </c>
       <c r="S10" t="n">
-        <v>11.01964064214005</v>
+        <v>10.87108758296706</v>
       </c>
       <c r="T10" t="n">
-        <v>2.701737663957134</v>
+        <v>2.665316204483317</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03402531324872324</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M12" t="n">
-        <v>222.8398747259509</v>
+        <v>237.1098912171571</v>
       </c>
       <c r="N12" t="n">
-        <v>207.056104036874</v>
+        <v>221.3261205280803</v>
       </c>
       <c r="O12" t="n">
-        <v>223.515857614999</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P12" t="n">
         <v>190.8441275431999</v>
@@ -32086,13 +32086,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M15" t="n">
-        <v>233.8199902598795</v>
+        <v>237.1098912171571</v>
       </c>
       <c r="N15" t="n">
-        <v>218.0362195708026</v>
+        <v>221.3261205280803</v>
       </c>
       <c r="O15" t="n">
-        <v>234.4959731489276</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P15" t="n">
         <v>190.8441275431999</v>
@@ -33748,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>252.8244861242316</v>
+        <v>238.5544696330254</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33985,7 +33985,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>241.844370590303</v>
+        <v>238.5544696330254</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.96885011499904</v>
+        <v>28.05749825847984</v>
       </c>
       <c r="M11" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N11" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2686072756679088</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P11" t="n">
-        <v>14.09544081448269</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14.36404809015059</v>
+        <v>28.05749825847984</v>
       </c>
       <c r="M12" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N12" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O12" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>25.94896564892766</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="M14" t="n">
-        <v>25.94896564892766</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N14" t="n">
-        <v>25.94896564892766</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O14" t="n">
-        <v>10.80508177792263</v>
+        <v>13.96205744399715</v>
       </c>
       <c r="P14" t="n">
         <v>14.09544081448269</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>24.90052259240532</v>
+        <v>28.05749825847984</v>
       </c>
       <c r="M15" t="n">
-        <v>25.94896564892766</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N15" t="n">
-        <v>25.94896564892766</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O15" t="n">
-        <v>25.94896564892766</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>45.35754004913036</v>
+        <v>29.42947135387474</v>
       </c>
       <c r="M17" t="n">
         <v>45.35754004913036</v>
@@ -35898,7 +35898,7 @@
         <v>45.35754004913036</v>
       </c>
       <c r="O17" t="n">
-        <v>29.42947135387475</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P17" t="n">
         <v>14.09544081448269</v>
@@ -35968,7 +35968,7 @@
         <v>28.55120600833618</v>
       </c>
       <c r="L18" t="n">
-        <v>31.09237960294628</v>
+        <v>14.97370616002124</v>
       </c>
       <c r="M18" t="n">
         <v>45.35754004913036</v>
@@ -35977,7 +35977,7 @@
         <v>45.35754004913036</v>
       </c>
       <c r="O18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>45.35754004913036</v>
       </c>
       <c r="O20" t="n">
-        <v>43.52491216835742</v>
+        <v>29.4294713538748</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>43.52491216835742</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M21" t="n">
         <v>45.35754004913036</v>
@@ -36214,10 +36214,10 @@
         <v>45.35754004913036</v>
       </c>
       <c r="O21" t="n">
-        <v>45.35754004913036</v>
+        <v>29.23886660620528</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>45.27953752113192</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>75.70608231735571</v>
       </c>
       <c r="O23" t="n">
-        <v>75.70608231735577</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P23" t="n">
         <v>14.09544081448269</v>
@@ -36442,19 +36442,19 @@
         <v>28.55120600833618</v>
       </c>
       <c r="L24" t="n">
-        <v>14.36404809015059</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M24" t="n">
-        <v>45.35754004913036</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N24" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O24" t="n">
-        <v>67.94310385601936</v>
+        <v>51.95860967794462</v>
       </c>
       <c r="P24" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M26" t="n">
-        <v>75.70608231735575</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N26" t="n">
         <v>75.70608231735571</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L27" t="n">
         <v>14.36404809015059</v>
       </c>
       <c r="M27" t="n">
-        <v>66.14576759613021</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N27" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O27" t="n">
-        <v>75.70608231735571</v>
+        <v>67.94310385601936</v>
       </c>
       <c r="P27" t="n">
         <v>75.70608231735571</v>
@@ -36916,19 +36916,19 @@
         <v>28.55120600833618</v>
       </c>
       <c r="L30" t="n">
-        <v>14.36404809015059</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M30" t="n">
-        <v>45.35754004913036</v>
+        <v>51.95860967794462</v>
       </c>
       <c r="N30" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O30" t="n">
-        <v>67.94310385601936</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P30" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>51.95860967794462</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M33" t="n">
         <v>75.70608231735571</v>
       </c>
       <c r="N33" t="n">
-        <v>67.84351733964857</v>
+        <v>72.64725070857367</v>
       </c>
       <c r="O33" t="n">
         <v>75.70608231735571</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>58.55180989409092</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="M35" t="n">
-        <v>60.73723220235667</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="N35" t="n">
-        <v>60.73723220235667</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="O35" t="n">
-        <v>46.37318411220613</v>
+        <v>30.49431163561114</v>
       </c>
       <c r="P35" t="n">
         <v>14.09544081448269</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>29.73199661008688</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="M36" t="n">
-        <v>60.73723220235667</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="N36" t="n">
-        <v>60.73723220235667</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="O36" t="n">
-        <v>60.73723220235667</v>
+        <v>44.58975245009381</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>49.75711666842804</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="M38" t="n">
-        <v>33.65128730168565</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="N38" t="n">
-        <v>49.75711666842804</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="O38" t="n">
-        <v>49.75711666842804</v>
+        <v>30.49431163561114</v>
       </c>
       <c r="P38" t="n">
         <v>14.09544081448269</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>14.36404809015059</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="M39" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N39" t="n">
-        <v>49.75711666842804</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="O39" t="n">
-        <v>29.23886660620531</v>
+        <v>45.69942811211386</v>
       </c>
       <c r="P39" t="n">
-        <v>29.74930069920193</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>15.02689772573354</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="M41" t="n">
         <v>30.34854226822534</v>
@@ -37794,7 +37794,7 @@
         <v>30.34854226822534</v>
       </c>
       <c r="O41" t="n">
-        <v>30.34854226822534</v>
+        <v>15.02689772573356</v>
       </c>
       <c r="P41" t="n">
         <v>14.09544081448269</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>15.8679661120857</v>
       </c>
       <c r="L42" t="n">
         <v>14.36404809015059</v>
@@ -37876,7 +37876,7 @@
         <v>29.23886660620531</v>
       </c>
       <c r="P42" t="n">
-        <v>15.86796611208567</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>30.34854226822534</v>
       </c>
       <c r="M44" t="n">
-        <v>30.34854226822534</v>
+        <v>15.02689772573356</v>
       </c>
       <c r="N44" t="n">
         <v>30.34854226822534</v>
       </c>
       <c r="O44" t="n">
-        <v>15.02689772573354</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="P44" t="n">
         <v>14.09544081448269</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>15.8679661120857</v>
       </c>
       <c r="L45" t="n">
-        <v>30.23201420223626</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M45" t="n">
         <v>30.34854226822534</v>
